--- a/Data/EC/NIT-9007763389.xlsx
+++ b/Data/EC/NIT-9007763389.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB0D31B3-02D2-4101-AA9B-0FE4F3235174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDC7BC14-4A2D-43EF-8B49-4A3822D2CAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A82CA01C-8756-4D33-AC55-D12697F883F9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C0395417-946F-4F0F-B108-4E2F0E88DE8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,49 +65,49 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73185136</t>
+  </si>
+  <si>
+    <t>LEONARDO GUARDO BENAVIDES</t>
+  </si>
+  <si>
+    <t>1603</t>
+  </si>
+  <si>
+    <t>45530579</t>
+  </si>
+  <si>
+    <t>YELENA PATRICIA GUERRA CORPAS</t>
+  </si>
+  <si>
+    <t>1143351939</t>
+  </si>
+  <si>
+    <t>JEYFERSON JOSE CORPA AREVALO</t>
+  </si>
+  <si>
     <t>1047381296</t>
   </si>
   <si>
     <t>LUISA SALCEDO PADILLA</t>
   </si>
   <si>
+    <t>1604</t>
+  </si>
+  <si>
+    <t>1605</t>
+  </si>
+  <si>
+    <t>1606</t>
+  </si>
+  <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
     <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>1606</t>
-  </si>
-  <si>
-    <t>1605</t>
-  </si>
-  <si>
-    <t>1604</t>
-  </si>
-  <si>
-    <t>73185136</t>
-  </si>
-  <si>
-    <t>LEONARDO GUARDO BENAVIDES</t>
-  </si>
-  <si>
-    <t>1603</t>
-  </si>
-  <si>
-    <t>45530579</t>
-  </si>
-  <si>
-    <t>YELENA PATRICIA GUERRA CORPAS</t>
-  </si>
-  <si>
-    <t>1143351939</t>
-  </si>
-  <si>
-    <t>JEYFERSON JOSE CORPA AREVALO</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -206,7 +206,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -219,9 +221,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -421,23 +421,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -465,10 +465,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -521,7 +521,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C42682A-E699-E97E-AC0D-20EE3DF17B38}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A70D0BC-5D90-5700-D027-70CAF3471838}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -872,7 +872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A709883-47E8-42D2-8B25-A10DEF2B66B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC3C6B4-F94E-4AEA-82FA-F234C41C87DC}">
   <dimension ref="B2:J48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1050,10 +1050,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>27578</v>
+        <v>27600</v>
       </c>
       <c r="G16" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1064,19 +1064,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>27578</v>
+        <v>27600</v>
       </c>
       <c r="G17" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1087,19 +1087,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>27578</v>
+        <v>27600</v>
       </c>
       <c r="G18" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1110,19 +1110,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F19" s="18">
         <v>27600</v>
       </c>
       <c r="G19" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1139,13 +1139,13 @@
         <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F20" s="18">
         <v>27600</v>
       </c>
       <c r="G20" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1156,19 +1156,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F21" s="18">
         <v>27600</v>
       </c>
       <c r="G21" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1179,16 +1179,16 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D22" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F22" s="18">
-        <v>27578</v>
+        <v>27600</v>
       </c>
       <c r="G22" s="18">
         <v>781242</v>
@@ -1202,16 +1202,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="17" t="s">
-        <v>18</v>
-      </c>
       <c r="E23" s="16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F23" s="18">
-        <v>27578</v>
+        <v>27600</v>
       </c>
       <c r="G23" s="18">
         <v>781242</v>
@@ -1225,16 +1225,16 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>27578</v>
+        <v>27600</v>
       </c>
       <c r="G24" s="18">
         <v>781242</v>
@@ -1248,13 +1248,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F25" s="18">
         <v>27600</v>
@@ -1271,13 +1271,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F26" s="18">
         <v>27600</v>
@@ -1294,13 +1294,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="17" t="s">
-        <v>18</v>
-      </c>
       <c r="E27" s="16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F27" s="18">
         <v>27600</v>
@@ -1317,13 +1317,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F28" s="18">
         <v>27600</v>
@@ -1340,16 +1340,16 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F29" s="18">
-        <v>27578</v>
+        <v>27600</v>
       </c>
       <c r="G29" s="18">
         <v>781242</v>
@@ -1363,16 +1363,16 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>12</v>
-      </c>
       <c r="F30" s="18">
-        <v>27578</v>
+        <v>27600</v>
       </c>
       <c r="G30" s="18">
         <v>781242</v>
@@ -1386,13 +1386,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D31" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="16" t="s">
         <v>21</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>13</v>
       </c>
       <c r="F31" s="18">
         <v>27578</v>
@@ -1409,16 +1409,16 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E32" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F32" s="18">
-        <v>27600</v>
+        <v>27578</v>
       </c>
       <c r="G32" s="18">
         <v>781242</v>
@@ -1432,16 +1432,16 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D33" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E33" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F33" s="18">
-        <v>27600</v>
+        <v>27578</v>
       </c>
       <c r="G33" s="18">
         <v>781242</v>
@@ -1455,16 +1455,16 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D34" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E34" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F34" s="18">
-        <v>27600</v>
+        <v>27578</v>
       </c>
       <c r="G34" s="18">
         <v>781242</v>
@@ -1478,16 +1478,16 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F35" s="18">
-        <v>27600</v>
+        <v>27578</v>
       </c>
       <c r="G35" s="18">
         <v>781242</v>
@@ -1501,13 +1501,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F36" s="18">
         <v>27578</v>
@@ -1524,13 +1524,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>12</v>
       </c>
       <c r="F37" s="18">
         <v>27578</v>
@@ -1547,13 +1547,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>13</v>
       </c>
       <c r="F38" s="18">
         <v>27578</v>
@@ -1570,16 +1570,16 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D39" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E39" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F39" s="18">
-        <v>27600</v>
+        <v>27578</v>
       </c>
       <c r="G39" s="18">
         <v>781242</v>
@@ -1593,16 +1593,16 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E40" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F40" s="18">
-        <v>27600</v>
+        <v>27578</v>
       </c>
       <c r="G40" s="18">
         <v>781242</v>
@@ -1616,16 +1616,16 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D41" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E41" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F41" s="18">
-        <v>27600</v>
+        <v>27578</v>
       </c>
       <c r="G41" s="18">
         <v>781242</v>
@@ -1639,16 +1639,16 @@
         <v>8</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D42" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="E42" s="22" t="s">
-        <v>19</v>
-      </c>
       <c r="F42" s="24">
-        <v>27600</v>
+        <v>27578</v>
       </c>
       <c r="G42" s="24">
         <v>781242</v>
